--- a/[Data] GenderGap/GenderGap_061014_GDP.xlsx
+++ b/[Data] GenderGap/GenderGap_061014_GDP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="12740" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10100" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="8" r:id="rId1"/>
@@ -1310,23 +1310,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1335,6 +1330,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1349,40 +1362,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,6 +1382,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="109">
@@ -1841,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1857,45 +1857,48 @@
     <col min="10" max="13" width="5.6640625" customWidth="1"/>
     <col min="14" max="14" width="6.83203125" customWidth="1"/>
     <col min="15" max="19" width="5.6640625" customWidth="1"/>
-    <col min="20" max="23" width="5.6640625" style="71" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="71" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="71" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="71" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="71" customWidth="1"/>
     <col min="24" max="24" width="5.6640625" style="70" customWidth="1"/>
     <col min="25" max="41" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" ht="34" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="96" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="96" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -1905,16 +1908,16 @@
       <c r="V1" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="103" t="s">
+      <c r="X1" s="91" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="144">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1969,16 +1972,16 @@
       <c r="W2" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="103"/>
+      <c r="X2" s="91"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="100">
-        <v>1</v>
-      </c>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="88">
+        <v>1</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="54">
@@ -2041,14 +2044,14 @@
       <c r="W3" s="72">
         <v>31</v>
       </c>
-      <c r="X3" s="103" t="s">
+      <c r="X3" s="91" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="98"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="103"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="54">
         <v>2010</v>
       </c>
@@ -2109,12 +2112,12 @@
       <c r="W4" s="71">
         <v>28</v>
       </c>
-      <c r="X4" s="103"/>
+      <c r="X4" s="91"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="98"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="103"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -2175,14 +2178,14 @@
       <c r="W5" s="71">
         <v>28</v>
       </c>
-      <c r="X5" s="103"/>
+      <c r="X5" s="91"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="98"/>
-      <c r="B6" s="100">
+      <c r="A6" s="103"/>
+      <c r="B6" s="88">
         <v>2</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="54">
@@ -2245,14 +2248,14 @@
       <c r="W6" s="72">
         <v>24</v>
       </c>
-      <c r="X6" s="103" t="s">
+      <c r="X6" s="91" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="98"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="103"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="54">
         <v>2010</v>
       </c>
@@ -2313,12 +2316,12 @@
       <c r="W7" s="71">
         <v>23</v>
       </c>
-      <c r="X7" s="103"/>
+      <c r="X7" s="91"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="98"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -2379,14 +2382,14 @@
       <c r="W8" s="71">
         <v>24</v>
       </c>
-      <c r="X8" s="103"/>
+      <c r="X8" s="91"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="100">
+      <c r="A9" s="103"/>
+      <c r="B9" s="88">
         <v>3</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="54">
@@ -2449,14 +2452,14 @@
       <c r="W9" s="72">
         <v>25</v>
       </c>
-      <c r="X9" s="103" t="s">
+      <c r="X9" s="91" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="103"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="54">
         <v>2010</v>
       </c>
@@ -2517,12 +2520,12 @@
       <c r="W10" s="71">
         <v>26</v>
       </c>
-      <c r="X10" s="103"/>
+      <c r="X10" s="91"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="98"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -2583,14 +2586,14 @@
       <c r="W11" s="71">
         <v>26</v>
       </c>
-      <c r="X11" s="103"/>
+      <c r="X11" s="91"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="98"/>
-      <c r="B12" s="100">
+      <c r="A12" s="103"/>
+      <c r="B12" s="88">
         <v>4</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="54">
@@ -2653,14 +2656,14 @@
       <c r="W12" s="72">
         <v>30</v>
       </c>
-      <c r="X12" s="103" t="s">
+      <c r="X12" s="91" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="98"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="103"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="54">
         <v>2010</v>
       </c>
@@ -2721,12 +2724,12 @@
       <c r="W13" s="71">
         <v>32</v>
       </c>
-      <c r="X13" s="103"/>
+      <c r="X13" s="91"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="98"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -2787,14 +2790,14 @@
       <c r="W14" s="71">
         <v>32</v>
       </c>
-      <c r="X14" s="103"/>
+      <c r="X14" s="91"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="100">
+      <c r="A15" s="103"/>
+      <c r="B15" s="88">
         <v>5</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="91" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="54">
@@ -2857,14 +2860,14 @@
       <c r="W15" s="72">
         <v>28</v>
       </c>
-      <c r="X15" s="103" t="s">
+      <c r="X15" s="91" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="98"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="103"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="54">
         <v>2010</v>
       </c>
@@ -2925,12 +2928,12 @@
       <c r="W16" s="71">
         <v>28</v>
       </c>
-      <c r="X16" s="103"/>
+      <c r="X16" s="91"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="98"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -2991,14 +2994,14 @@
       <c r="W17" s="71">
         <v>31</v>
       </c>
-      <c r="X17" s="103"/>
+      <c r="X17" s="91"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="100">
+      <c r="A18" s="103"/>
+      <c r="B18" s="88">
         <v>6</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="91" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="54">
@@ -3061,14 +3064,14 @@
       <c r="W18" s="72">
         <v>26</v>
       </c>
-      <c r="X18" s="103" t="s">
+      <c r="X18" s="91" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="98"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="103"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="54">
         <v>2010</v>
       </c>
@@ -3129,12 +3132,12 @@
       <c r="W19" s="71">
         <v>26</v>
       </c>
-      <c r="X19" s="103"/>
+      <c r="X19" s="91"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="98"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -3195,14 +3198,14 @@
       <c r="W20" s="71">
         <v>32</v>
       </c>
-      <c r="X20" s="103"/>
+      <c r="X20" s="91"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="100">
+      <c r="A21" s="103"/>
+      <c r="B21" s="88">
         <v>7</v>
       </c>
-      <c r="C21" s="103" t="s">
+      <c r="C21" s="91" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="54">
@@ -3265,14 +3268,14 @@
       <c r="W21" s="71">
         <v>26</v>
       </c>
-      <c r="X21" s="103" t="s">
+      <c r="X21" s="91" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="98"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="103"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="54">
         <v>2010</v>
       </c>
@@ -3333,12 +3336,12 @@
       <c r="W22" s="71">
         <v>26</v>
       </c>
-      <c r="X22" s="103"/>
+      <c r="X22" s="91"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="98"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -3399,14 +3402,14 @@
       <c r="W23" s="71">
         <v>27</v>
       </c>
-      <c r="X23" s="103"/>
+      <c r="X23" s="91"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="98"/>
-      <c r="B24" s="100">
+      <c r="A24" s="103"/>
+      <c r="B24" s="88">
         <v>8</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="98" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="54">
@@ -3469,14 +3472,14 @@
       <c r="W24" s="72">
         <v>23</v>
       </c>
-      <c r="X24" s="103" t="s">
+      <c r="X24" s="91" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="98"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="107"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="54">
         <v>2010</v>
       </c>
@@ -3537,12 +3540,12 @@
       <c r="W25" s="71">
         <v>23</v>
       </c>
-      <c r="X25" s="103"/>
+      <c r="X25" s="91"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="98"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="108"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -3603,14 +3606,14 @@
       <c r="W26" s="71">
         <v>22</v>
       </c>
-      <c r="X26" s="103"/>
+      <c r="X26" s="91"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="98"/>
-      <c r="B27" s="100">
+      <c r="A27" s="103"/>
+      <c r="B27" s="88">
         <v>9</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="91" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="54">
@@ -3673,14 +3676,14 @@
       <c r="W27" s="71">
         <v>23</v>
       </c>
-      <c r="X27" s="103" t="s">
+      <c r="X27" s="91" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="98"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="103"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="54">
         <v>2010</v>
       </c>
@@ -3741,12 +3744,12 @@
       <c r="W28" s="71">
         <v>25</v>
       </c>
-      <c r="X28" s="103"/>
+      <c r="X28" s="91"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="98"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="103"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -3807,14 +3810,14 @@
       <c r="W29" s="71">
         <v>27</v>
       </c>
-      <c r="X29" s="103"/>
+      <c r="X29" s="91"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="98"/>
-      <c r="B30" s="100">
+      <c r="A30" s="103"/>
+      <c r="B30" s="88">
         <v>10</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="54">
@@ -3877,14 +3880,14 @@
       <c r="W30" s="71">
         <v>23</v>
       </c>
-      <c r="X30" s="103" t="s">
+      <c r="X30" s="91" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="98"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="103"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="54">
         <v>2010</v>
       </c>
@@ -3945,12 +3948,12 @@
       <c r="W31" s="71">
         <v>23</v>
       </c>
-      <c r="X31" s="103"/>
+      <c r="X31" s="91"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="98"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -4011,14 +4014,14 @@
       <c r="W32" s="71">
         <v>25</v>
       </c>
-      <c r="X32" s="103"/>
+      <c r="X32" s="91"/>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="98"/>
-      <c r="B33" s="100">
+      <c r="A33" s="103"/>
+      <c r="B33" s="88">
         <v>11</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="91" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="54">
@@ -4081,14 +4084,14 @@
       <c r="W33" s="72">
         <v>20</v>
       </c>
-      <c r="X33" s="103" t="s">
+      <c r="X33" s="91" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="98"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="103"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="54">
         <v>2010</v>
       </c>
@@ -4149,12 +4152,12 @@
       <c r="W34" s="71">
         <v>20</v>
       </c>
-      <c r="X34" s="103"/>
+      <c r="X34" s="91"/>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="98"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -4215,14 +4218,14 @@
       <c r="W35" s="71">
         <v>20</v>
       </c>
-      <c r="X35" s="103"/>
+      <c r="X35" s="91"/>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="98"/>
-      <c r="B36" s="100">
+      <c r="A36" s="103"/>
+      <c r="B36" s="88">
         <v>12</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="91" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="54">
@@ -4285,14 +4288,14 @@
       <c r="W36" s="72">
         <v>29</v>
       </c>
-      <c r="X36" s="103" t="s">
+      <c r="X36" s="91" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="98"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="103"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="54">
         <v>2010</v>
       </c>
@@ -4353,12 +4356,12 @@
       <c r="W37" s="71">
         <v>29</v>
       </c>
-      <c r="X37" s="103"/>
+      <c r="X37" s="91"/>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="98"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -4419,14 +4422,14 @@
       <c r="W38" s="71">
         <v>30</v>
       </c>
-      <c r="X38" s="103"/>
+      <c r="X38" s="91"/>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="98"/>
-      <c r="B39" s="100">
+      <c r="A39" s="103"/>
+      <c r="B39" s="88">
         <v>13</v>
       </c>
-      <c r="C39" s="103" t="s">
+      <c r="C39" s="91" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="54">
@@ -4489,14 +4492,14 @@
       <c r="W39" s="72">
         <v>20</v>
       </c>
-      <c r="X39" s="103" t="s">
+      <c r="X39" s="91" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="98"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="103"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="54">
         <v>2010</v>
       </c>
@@ -4557,12 +4560,12 @@
       <c r="W40" s="71">
         <v>20</v>
       </c>
-      <c r="X40" s="103"/>
+      <c r="X40" s="91"/>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="98"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -4623,82 +4626,82 @@
       <c r="W41" s="71">
         <v>20</v>
       </c>
-      <c r="X41" s="103"/>
+      <c r="X41" s="91"/>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="98"/>
+      <c r="A42" s="103"/>
     </row>
     <row r="43" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="98"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="73"/>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91" t="s">
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91" t="s">
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91" t="s">
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91" t="s">
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="93" t="s">
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="94"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="91" t="s">
+      <c r="S43" s="93"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="93" t="s">
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="94"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="91" t="s">
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="94"/>
+      <c r="AA43" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="AB43" s="91"/>
-      <c r="AC43" s="91"/>
-      <c r="AD43" s="91" t="s">
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" s="91"/>
-      <c r="AF43" s="91"/>
-      <c r="AG43" s="91" t="s">
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="AH43" s="91"/>
-      <c r="AI43" s="91"/>
-      <c r="AJ43" s="91" t="s">
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AK43" s="91"/>
-      <c r="AL43" s="91"/>
-      <c r="AM43" s="91" t="s">
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="91"/>
-      <c r="AO43" s="91"/>
+      <c r="AN43" s="95"/>
+      <c r="AO43" s="95"/>
     </row>
     <row r="44" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A44" s="99"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73" t="s">
         <v>72</v>
@@ -4939,10 +4942,10 @@
       </c>
     </row>
     <row r="46" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="90"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="79">
         <v>2006</v>
       </c>
@@ -4976,10 +4979,10 @@
       <c r="W46" s="80"/>
     </row>
     <row r="47" spans="1:41" ht="16" thickTop="1">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="92"/>
+      <c r="B47" s="97"/>
       <c r="C47">
         <f xml:space="preserve"> C45/115</f>
         <v>3.4782608695652174E-2</v>
@@ -5138,10 +5141,10 @@
       </c>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="88"/>
+      <c r="B48" s="96"/>
       <c r="C48">
         <f xml:space="preserve"> C47*72</f>
         <v>2.5043478260869567</v>
@@ -5300,10 +5303,10 @@
       </c>
     </row>
     <row r="49" spans="1:41" s="81" customFormat="1">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="87"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="81">
         <f xml:space="preserve"> 72-C48</f>
         <v>69.495652173913044</v>
@@ -5511,7 +5514,7 @@
       <c r="X51" s="84"/>
     </row>
     <row r="52" spans="1:41" s="81" customFormat="1">
-      <c r="A52" s="111">
+      <c r="A52" s="87">
         <v>2006</v>
       </c>
       <c r="B52" s="81">
@@ -5545,7 +5548,7 @@
       <c r="X52" s="86"/>
     </row>
     <row r="53" spans="1:41" s="81" customFormat="1">
-      <c r="A53" s="111">
+      <c r="A53" s="87">
         <v>2010</v>
       </c>
       <c r="B53" s="81">
@@ -5579,7 +5582,7 @@
       <c r="X53" s="86"/>
     </row>
     <row r="54" spans="1:41" s="81" customFormat="1">
-      <c r="A54" s="111">
+      <c r="A54" s="87">
         <v>2014</v>
       </c>
       <c r="B54" s="81">
@@ -5613,77 +5616,77 @@
       <c r="X54" s="86"/>
     </row>
     <row r="55" spans="1:41">
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="93" t="s">
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="94"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="91" t="s">
+      <c r="G55" s="93"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91" t="s">
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="M55" s="91"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="91" t="s">
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="91"/>
-      <c r="Q55" s="91"/>
-      <c r="R55" s="93" t="s">
+      <c r="P55" s="95"/>
+      <c r="Q55" s="95"/>
+      <c r="R55" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="94"/>
-      <c r="T55" s="95"/>
-      <c r="U55" s="91" t="s">
+      <c r="S55" s="93"/>
+      <c r="T55" s="94"/>
+      <c r="U55" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="V55" s="91"/>
-      <c r="W55" s="91"/>
-      <c r="X55" s="91" t="s">
+      <c r="V55" s="95"/>
+      <c r="W55" s="95"/>
+      <c r="X55" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="91"/>
-      <c r="Z55" s="91"/>
-      <c r="AA55" s="91" t="s">
+      <c r="Y55" s="95"/>
+      <c r="Z55" s="95"/>
+      <c r="AA55" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="AB55" s="91"/>
-      <c r="AC55" s="91"/>
-      <c r="AD55" s="91" t="s">
+      <c r="AB55" s="95"/>
+      <c r="AC55" s="95"/>
+      <c r="AD55" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="91"/>
-      <c r="AF55" s="91"/>
-      <c r="AG55" s="91" t="s">
+      <c r="AE55" s="95"/>
+      <c r="AF55" s="95"/>
+      <c r="AG55" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="AH55" s="91"/>
-      <c r="AI55" s="91"/>
-      <c r="AJ55" s="91" t="s">
+      <c r="AH55" s="95"/>
+      <c r="AI55" s="95"/>
+      <c r="AJ55" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="91"/>
-      <c r="AL55" s="91"/>
-      <c r="AM55" s="91" t="s">
+      <c r="AK55" s="95"/>
+      <c r="AL55" s="95"/>
+      <c r="AM55" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="AN55" s="91"/>
-      <c r="AO55" s="91"/>
+      <c r="AN55" s="95"/>
+      <c r="AO55" s="95"/>
     </row>
     <row r="56" spans="1:41" ht="70">
-      <c r="A56" s="112" t="s">
+      <c r="A56" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="113"/>
+      <c r="B56" s="109"/>
       <c r="C56" s="74" t="s">
         <v>99</v>
       </c>
@@ -5803,8 +5806,8 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="16" thickBot="1">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
+      <c r="A57" s="110"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="74">
         <v>23</v>
       </c>
@@ -5924,10 +5927,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="16" thickTop="1">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="92"/>
+      <c r="B58" s="97"/>
       <c r="C58">
         <f xml:space="preserve"> C57/115</f>
         <v>0.2</v>
@@ -6086,10 +6089,10 @@
       </c>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="88"/>
+      <c r="B59" s="96"/>
       <c r="C59">
         <f xml:space="preserve"> C58*65</f>
         <v>13</v>
@@ -6248,10 +6251,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="87"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="81">
         <f xml:space="preserve"> 65-C59</f>
         <v>52</v>
@@ -6416,53 +6419,25 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="X30:X32"/>
-    <mergeCell ref="X33:X35"/>
-    <mergeCell ref="X36:X38"/>
-    <mergeCell ref="X39:X41"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="X15:X17"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X21:X23"/>
-    <mergeCell ref="X24:X26"/>
-    <mergeCell ref="X27:X29"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AM43:AO43"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="AG55:AI55"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="R55:T55"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A3:A44"/>
     <mergeCell ref="B3:B5"/>
@@ -6479,25 +6454,53 @@
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="AG55:AI55"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AM43:AO43"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X15:X17"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X21:X23"/>
+    <mergeCell ref="X24:X26"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="X30:X32"/>
+    <mergeCell ref="X33:X35"/>
+    <mergeCell ref="X36:X38"/>
+    <mergeCell ref="X39:X41"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6527,44 +6530,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="96" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="96" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -6609,7 +6612,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="102" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -6668,7 +6671,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="98"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -6725,7 +6728,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A5" s="98"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -6782,7 +6785,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="98"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -6839,7 +6842,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A7" s="98"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -6896,7 +6899,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A8" s="98"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -6953,7 +6956,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A9" s="98"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -7010,7 +7013,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="98"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -7067,7 +7070,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="98"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -7124,7 +7127,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="98"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -7181,7 +7184,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="98"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -7238,7 +7241,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="98"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -7295,7 +7298,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="98"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -8057,44 +8060,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="96" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="96" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -8139,7 +8142,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="102" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -8198,7 +8201,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="98"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -8255,7 +8258,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A5" s="98"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -8312,7 +8315,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="98"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -8369,7 +8372,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A7" s="98"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -8426,7 +8429,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="98"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -8483,7 +8486,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A9" s="98"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -8540,7 +8543,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="98"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -8597,7 +8600,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="98"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -8654,7 +8657,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="98"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -8711,7 +8714,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="98"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -8768,7 +8771,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="98"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -8825,7 +8828,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="98"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -9639,44 +9642,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="96" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="96" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -9721,7 +9724,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="102" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -9780,7 +9783,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="98"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -9837,7 +9840,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="24">
-      <c r="A5" s="98"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -9894,7 +9897,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="98"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -9951,7 +9954,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="24">
-      <c r="A7" s="98"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -10008,7 +10011,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="98"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -10065,7 +10068,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="24">
-      <c r="A9" s="98"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -10122,7 +10125,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="98"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -10179,7 +10182,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="98"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -10236,7 +10239,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="98"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -10293,7 +10296,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="98"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -10350,7 +10353,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="98"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -10407,7 +10410,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="98"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -10528,171 +10531,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="20" customHeight="1">
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:44" ht="20" customHeight="1">
-      <c r="C2" s="100">
-        <v>1</v>
-      </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="100">
+      <c r="C2" s="88">
+        <v>1</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="88">
         <v>2</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="100">
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="88">
         <v>3</v>
       </c>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="100">
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="88">
         <v>4</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="100">
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="88">
         <v>5</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="100">
+      <c r="P2" s="89"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="88">
         <v>6</v>
       </c>
-      <c r="S2" s="101"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="100">
+      <c r="S2" s="89"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="88">
         <v>7</v>
       </c>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="100">
+      <c r="V2" s="89"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="88">
         <v>8</v>
       </c>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="100">
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="88">
         <v>14</v>
       </c>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="100">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="88">
         <v>9</v>
       </c>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="100">
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="88">
         <v>10</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="100">
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="88">
         <v>11</v>
       </c>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="100">
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="88">
         <v>12</v>
       </c>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="100">
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="88">
         <v>13</v>
       </c>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="102"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="90"/>
     </row>
     <row r="3" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103" t="s">
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103" t="s">
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103" t="s">
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103" t="s">
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="106" t="s">
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="103" t="s">
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103" t="s">
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103" t="s">
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103" t="s">
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103" t="s">
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
     </row>
     <row r="4" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="14">
         <v>2006</v>
       </c>
@@ -10821,10 +10824,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="14">
         <v>4</v>
       </c>
@@ -10953,7 +10956,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="105" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -11087,7 +11090,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="104"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -11219,7 +11222,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="104"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
@@ -11351,7 +11354,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="104"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -11483,7 +11486,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="104"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
@@ -11615,7 +11618,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="20" customHeight="1">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="101" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -11749,7 +11752,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="20" customHeight="1">
-      <c r="A12" s="96"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -11881,7 +11884,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="20" customHeight="1">
-      <c r="A13" s="96"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
@@ -12013,7 +12016,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="20" customHeight="1">
-      <c r="A14" s="96"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
@@ -12145,7 +12148,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="106" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -12279,7 +12282,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="105"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -12411,7 +12414,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" ht="20" customHeight="1">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="101" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -12545,7 +12548,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" ht="20" customHeight="1">
-      <c r="A18" s="96"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -12677,7 +12680,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="20" customHeight="1">
-      <c r="A19" s="96"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
@@ -13335,6 +13338,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
@@ -13348,29 +13374,6 @@
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13573,7 +13576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S21" sqref="E21:S23"/>
     </sheetView>
   </sheetViews>
@@ -13582,44 +13585,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="96" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="96" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -13664,13 +13667,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="100">
-        <v>1</v>
-      </c>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="88">
+        <v>1</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="14">
@@ -13723,9 +13726,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="98"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="103"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="14">
         <v>2010</v>
       </c>
@@ -13776,9 +13779,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="98"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="103"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -13829,11 +13832,11 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="98"/>
-      <c r="B6" s="100">
+      <c r="A6" s="103"/>
+      <c r="B6" s="88">
         <v>2</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="14">
@@ -13886,9 +13889,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="98"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="103"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="14">
         <v>2010</v>
       </c>
@@ -13939,9 +13942,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="98"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -13992,11 +13995,11 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="98"/>
-      <c r="B9" s="100">
+      <c r="A9" s="103"/>
+      <c r="B9" s="88">
         <v>3</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14">
@@ -14049,9 +14052,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="103"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="14">
         <v>2010</v>
       </c>
@@ -14102,9 +14105,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="98"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -14155,11 +14158,11 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="98"/>
-      <c r="B12" s="100">
+      <c r="A12" s="103"/>
+      <c r="B12" s="88">
         <v>4</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="91" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14">
@@ -14212,9 +14215,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="98"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="103"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="14">
         <v>2010</v>
       </c>
@@ -14265,9 +14268,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="98"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -14318,11 +14321,11 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="98"/>
-      <c r="B15" s="100">
+      <c r="A15" s="103"/>
+      <c r="B15" s="88">
         <v>5</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="91" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="14">
@@ -14375,9 +14378,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="98"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="103"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="14">
         <v>2010</v>
       </c>
@@ -14428,9 +14431,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="98"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -14481,11 +14484,11 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="98"/>
-      <c r="B18" s="100">
+      <c r="A18" s="103"/>
+      <c r="B18" s="88">
         <v>6</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="91" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14">
@@ -14538,9 +14541,9 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="98"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="103"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="14">
         <v>2010</v>
       </c>
@@ -14591,9 +14594,9 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="98"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -14644,11 +14647,11 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="98"/>
-      <c r="B21" s="100">
+      <c r="A21" s="103"/>
+      <c r="B21" s="88">
         <v>7</v>
       </c>
-      <c r="C21" s="103" t="s">
+      <c r="C21" s="91" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="14">
@@ -14701,9 +14704,9 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="98"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="103"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="14">
         <v>2010</v>
       </c>
@@ -14754,9 +14757,9 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="98"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -14807,11 +14810,11 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="98"/>
-      <c r="B24" s="100">
+      <c r="A24" s="103"/>
+      <c r="B24" s="88">
         <v>8</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="91" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="14">
@@ -14864,9 +14867,9 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="98"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="103"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="14">
         <v>2010</v>
       </c>
@@ -14917,9 +14920,9 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="98"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -14970,11 +14973,11 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="98"/>
-      <c r="B27" s="100">
+      <c r="A27" s="103"/>
+      <c r="B27" s="88">
         <v>14</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="98" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="14">
@@ -15027,9 +15030,9 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="98"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="107"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="14">
         <v>2010</v>
       </c>
@@ -15080,9 +15083,9 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="98"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -15133,11 +15136,11 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="98"/>
-      <c r="B30" s="100">
+      <c r="A30" s="103"/>
+      <c r="B30" s="88">
         <v>9</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="91" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="14">
@@ -15190,9 +15193,9 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="98"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="103"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="14">
         <v>2010</v>
       </c>
@@ -15243,9 +15246,9 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="98"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -15296,11 +15299,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="98"/>
-      <c r="B33" s="100">
+      <c r="A33" s="103"/>
+      <c r="B33" s="88">
         <v>10</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="14">
@@ -15353,9 +15356,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="98"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="103"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="14">
         <v>2010</v>
       </c>
@@ -15406,9 +15409,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="98"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -15459,11 +15462,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="98"/>
-      <c r="B36" s="100">
+      <c r="A36" s="103"/>
+      <c r="B36" s="88">
         <v>11</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="91" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14">
@@ -15516,9 +15519,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="98"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="103"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="14">
         <v>2010</v>
       </c>
@@ -15569,9 +15572,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="98"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -15622,11 +15625,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="98"/>
-      <c r="B39" s="100">
+      <c r="A39" s="103"/>
+      <c r="B39" s="88">
         <v>12</v>
       </c>
-      <c r="C39" s="103" t="s">
+      <c r="C39" s="91" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="14">
@@ -15679,9 +15682,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="98"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="103"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="14">
         <v>2010</v>
       </c>
@@ -15732,9 +15735,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="98"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -15785,11 +15788,11 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="98"/>
-      <c r="B42" s="100">
+      <c r="A42" s="103"/>
+      <c r="B42" s="88">
         <v>13</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="91" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="14">
@@ -15842,9 +15845,9 @@
       </c>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="98"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="103"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="14">
         <v>2010</v>
       </c>
@@ -15895,9 +15898,9 @@
       </c>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="99"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="25">
         <v>2014</v>
       </c>
@@ -15948,81 +15951,81 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="103"/>
-      <c r="C46" s="103" t="s">
+      <c r="B46" s="91"/>
+      <c r="C46" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103" t="s">
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103" t="s">
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="103" t="s">
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="103" t="s">
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103" t="s">
+      <c r="P46" s="91"/>
+      <c r="Q46" s="91"/>
+      <c r="R46" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="S46" s="103"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="106" t="s">
+      <c r="S46" s="91"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="107"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="106" t="s">
+      <c r="V46" s="99"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="107"/>
-      <c r="Z46" s="108"/>
-      <c r="AA46" s="103" t="s">
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="AB46" s="103"/>
-      <c r="AC46" s="103"/>
-      <c r="AD46" s="103" t="s">
+      <c r="AB46" s="91"/>
+      <c r="AC46" s="91"/>
+      <c r="AD46" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="AE46" s="103"/>
-      <c r="AF46" s="103"/>
-      <c r="AG46" s="103" t="s">
+      <c r="AE46" s="91"/>
+      <c r="AF46" s="91"/>
+      <c r="AG46" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="AH46" s="103"/>
-      <c r="AI46" s="103"/>
-      <c r="AJ46" s="103" t="s">
+      <c r="AH46" s="91"/>
+      <c r="AI46" s="91"/>
+      <c r="AJ46" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AK46" s="103"/>
-      <c r="AL46" s="103"/>
-      <c r="AM46" s="103" t="s">
+      <c r="AK46" s="91"/>
+      <c r="AL46" s="91"/>
+      <c r="AM46" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AN46" s="103"/>
-      <c r="AO46" s="103"/>
+      <c r="AN46" s="91"/>
+      <c r="AO46" s="91"/>
     </row>
     <row r="47" spans="1:41" ht="42.75" customHeight="1">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="103"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="54" t="s">
         <v>72</v>
       </c>
@@ -16142,10 +16145,10 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="33" customHeight="1">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="103"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="54">
         <v>4</v>
       </c>
@@ -16265,7 +16268,7 @@
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="115" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="63">
@@ -16276,7 +16279,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="88"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="63">
         <v>2010</v>
       </c>
@@ -16285,7 +16288,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="88"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="63">
         <v>2014</v>
       </c>
@@ -16295,23 +16298,26 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="AG46:AI46"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B42:B44"/>
@@ -16328,26 +16334,23 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AG46:AI46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
